--- a/dataset/timeline_all_metrics.xlsx
+++ b/dataset/timeline_all_metrics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\eody_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakri\Desktop\covid19\covid19-greece\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41EE1EA-3C1D-42D8-A29E-94F7971AD177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DB236E-792F-425E-8B4D-447319E938CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A7FF354E-1EB0-4F36-B8E8-83E0E8F79925}"/>
   </bookViews>
@@ -100,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -133,7 +133,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,20 +448,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717DE2E-B3B1-4DDF-AE3D-0CA8EA5D45B8}">
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="34" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="39" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -564,8 +564,23 @@
       <c r="AH1" s="1">
         <v>43919</v>
       </c>
+      <c r="AI1" s="1">
+        <v>43920</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>43921</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>43922</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>43923</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>43924</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -668,8 +683,23 @@
       <c r="AH2">
         <v>1156</v>
       </c>
+      <c r="AI2">
+        <v>1212</v>
+      </c>
+      <c r="AJ2">
+        <v>1314</v>
+      </c>
+      <c r="AK2">
+        <v>1415</v>
+      </c>
+      <c r="AL2">
+        <v>1544</v>
+      </c>
+      <c r="AM2">
+        <v>1613</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -772,8 +802,23 @@
       <c r="AH3">
         <v>38</v>
       </c>
+      <c r="AI3">
+        <v>43</v>
+      </c>
+      <c r="AJ3">
+        <v>49</v>
+      </c>
+      <c r="AK3">
+        <v>50</v>
+      </c>
+      <c r="AL3">
+        <v>53</v>
+      </c>
+      <c r="AM3">
+        <v>59</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -873,8 +918,23 @@
       <c r="AH4">
         <v>15151</v>
       </c>
+      <c r="AI4">
+        <v>15961</v>
+      </c>
+      <c r="AJ4">
+        <v>16732</v>
+      </c>
+      <c r="AK4">
+        <v>17350</v>
+      </c>
+      <c r="AL4">
+        <v>18844</v>
+      </c>
+      <c r="AM4">
+        <v>22437</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -972,7 +1032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1124,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1167,8 +1227,23 @@
       <c r="AH7">
         <v>69</v>
       </c>
+      <c r="AI7">
+        <v>72</v>
+      </c>
+      <c r="AJ7">
+        <v>85</v>
+      </c>
+      <c r="AK7">
+        <v>90</v>
+      </c>
+      <c r="AL7">
+        <v>91</v>
+      </c>
+      <c r="AM7">
+        <v>92</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1335,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1355,7 +1430,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1525,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1545,7 +1620,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1640,7 +1715,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1735,7 +1810,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1830,7 +1905,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1925,7 +2000,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
